--- a/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
+++ b/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ThumbsUp" sheetId="1" r:id="rId1"/>
@@ -90,13 +90,13 @@
     <t>J1</t>
   </si>
   <si>
-    <t>AMP - TE CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>826629-6</t>
-  </si>
-  <si>
-    <t>3418327</t>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>22-27-2061</t>
+  </si>
+  <si>
+    <t>9731172</t>
   </si>
   <si>
     <t>L2</t>

--- a/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
+++ b/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ThumbsUp" sheetId="1" r:id="rId1"/>

--- a/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
+++ b/Altium/Project Outputs for ThumbsUp/BOM/Bill of Materials-ThumbsUp.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\TU\ThumbsUp\Altium\Project Outputs for ThumbsUp\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Quantity</t>
   </si>
@@ -54,27 +59,6 @@
     <t>1888395</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3, C4, C6</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>D1, D2, D3</t>
   </si>
   <si>
@@ -111,39 +95,9 @@
     <t>2289189</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>Microchip</t>
   </si>
   <si>
-    <t>RN42HID-I/RM</t>
-  </si>
-  <si>
-    <t>2775075</t>
-  </si>
-  <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
-    <t>Multicomp</t>
-  </si>
-  <si>
-    <t>9331506</t>
-  </si>
-  <si>
-    <t>R4, R6, R6</t>
-  </si>
-  <si>
-    <t>9330399</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>9330380</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -184,37 +138,13 @@
   </si>
   <si>
     <t>2313766</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>91A1A-B28-B13L</t>
-  </si>
-  <si>
-    <t>9357750</t>
-  </si>
-  <si>
-    <t>XA1</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>30310-5002HB.</t>
-  </si>
-  <si>
-    <t>2134098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +158,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +213,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,417 +506,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
